--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>JAPANESE</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>BELOW</t>
+  </si>
+  <si>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -441,10 +444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,7 +457,7 @@
     <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -470,7 +473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -478,7 +481,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -486,7 +489,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -502,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -510,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -518,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -526,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -534,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -542,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -550,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -558,7 +561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -566,15 +569,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
